--- a/data/output/04/26_155817_local/performance_Macau.xlsx
+++ b/data/output/04/26_155817_local/performance_Macau.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7484" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7484" uniqueCount="142">
   <si>
     <t>Experiment</t>
   </si>
@@ -108,9 +108,6 @@
     <t>LSTM + FL</t>
   </si>
   <si>
-    <t>R^2</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
@@ -123,259 +120,319 @@
     <t>C-LSTM</t>
   </si>
   <si>
-    <t>FL-LSTM(R=1)</t>
+    <t>FL_LSTM(R=1)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=2)</t>
+    <t>FL_LSTM(R=2)</t>
   </si>
   <si>
     <t>MinSMAPE</t>
   </si>
   <si>
-    <t>FL-LSTM(R=3)</t>
+    <t>FL_LSTM(R=3)</t>
   </si>
   <si>
     <t>MinRMSE</t>
   </si>
   <si>
-    <t>FL-LSTM(R=4)</t>
+    <t>FL_LSTM(R=4)</t>
   </si>
   <si>
     <t>MinMAE</t>
   </si>
   <si>
-    <t>FL-LSTM(R=5)</t>
+    <t>FL_LSTM(R=5)</t>
   </si>
   <si>
     <t>MinR^2</t>
   </si>
   <si>
-    <t>FL-LSTM(R=6)</t>
+    <t>FL_LSTM(R=6)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=7)</t>
+    <t>FL_LSTM(R=7)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=8)</t>
+    <t>FL_LSTM(R=8)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=9)</t>
+    <t>FL_LSTM(R=9)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=10)</t>
+    <t>FL_LSTM(R=10)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=11)</t>
+    <t>FL_LSTM(R=11)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=12)</t>
+    <t>FL_LSTM(R=12)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=13)</t>
+    <t>FL_LSTM(R=13)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=14)</t>
+    <t>FL_LSTM(R=14)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=15)</t>
+    <t>FL_LSTM(R=15)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=16)</t>
+    <t>FL_LSTM(R=16)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=17)</t>
+    <t>FL_LSTM(R=17)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=18)</t>
+    <t>FL_LSTM(R=18)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=19)</t>
+    <t>FL_LSTM(R=19)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=20)</t>
+    <t>FL_LSTM(R=20)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=21)</t>
+    <t>FL_LSTM(R=21)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=22)</t>
+    <t>FL_LSTM(R=22)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=23)</t>
+    <t>FL_LSTM(R=23)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=24)</t>
+    <t>FL_LSTM(R=24)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=25)</t>
+    <t>FL_LSTM(R=25)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=26)</t>
+    <t>FL_LSTM(R=26)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=27)</t>
+    <t>FL_LSTM(R=27)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=28)</t>
+    <t>FL_LSTM(R=28)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=29)</t>
+    <t>FL_LSTM(R=29)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=30)</t>
+    <t>FL_LSTM(R=30)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=31)</t>
+    <t>FL_LSTM(R=31)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=32)</t>
+    <t>FL_LSTM(R=32)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=33)</t>
+    <t>FL_LSTM(R=33)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=34)</t>
+    <t>FL_LSTM(R=34)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=35)</t>
+    <t>FL_LSTM(R=35)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=36)</t>
+    <t>FL_LSTM(R=36)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=37)</t>
+    <t>FL_LSTM(R=37)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=38)</t>
+    <t>FL_LSTM(R=38)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=39)</t>
+    <t>FL_LSTM(R=39)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=40)</t>
+    <t>FL_LSTM(R=40)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=41)</t>
+    <t>FL_LSTM(R=41)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=42)</t>
+    <t>FL_LSTM(R=42)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=43)</t>
+    <t>FL_LSTM(R=43)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=44)</t>
+    <t>FL_LSTM(R=44)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=45)</t>
+    <t>FL_LSTM(R=45)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=46)</t>
+    <t>FL_LSTM(R=46)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=47)</t>
+    <t>FL_LSTM(R=47)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=48)</t>
+    <t>FL_LSTM(R=48)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=49)</t>
+    <t>FL_LSTM(R=49)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=50)</t>
+    <t>FL_LSTM(R=50)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=51)</t>
+    <t>FL_LSTM(R=51)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=52)</t>
+    <t>FL_LSTM(R=52)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=53)</t>
+    <t>FL_LSTM(R=53)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=54)</t>
+    <t>FL_LSTM(R=54)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=55)</t>
+    <t>FL_LSTM(R=55)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=56)</t>
+    <t>FL_LSTM(R=56)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=57)</t>
+    <t>FL_LSTM(R=57)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=58)</t>
+    <t>FL_LSTM(R=58)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=59)</t>
+    <t>FL_LSTM(R=59)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=60)</t>
+    <t>FL_LSTM(R=60)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=61)</t>
+    <t>FL_LSTM(R=61)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=62)</t>
+    <t>FL_LSTM(R=62)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=63)</t>
+    <t>FL_LSTM(R=63)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=64)</t>
+    <t>FL_LSTM(R=64)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=65)</t>
+    <t>FL_LSTM(R=65)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=66)</t>
+    <t>FL_LSTM(R=66)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=67)</t>
+    <t>FL_LSTM(R=67)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=68)</t>
+    <t>FL_LSTM(R=68)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=69)</t>
+    <t>FL_LSTM(R=69)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=70)</t>
+    <t>FL_LSTM(R=70)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=71)</t>
+    <t>FL_LSTM(R=71)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=72)</t>
+    <t>FL_LSTM(R=72)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=73)</t>
+    <t>FL_LSTM(R=73)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=74)</t>
+    <t>FL_LSTM(R=74)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=75)</t>
+    <t>FL_LSTM(R=75)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=76)</t>
+    <t>FL_LSTM(R=76)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=77)</t>
+    <t>FL_LSTM(R=77)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=78)</t>
+    <t>FL_LSTM(R=78)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=79)</t>
+    <t>FL_LSTM(R=79)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=80)</t>
+    <t>FL_LSTM(R=80)</t>
   </si>
   <si>
-    <t>FL-LSTM(R=81)</t>
+    <t>FL_LSTM(R=81)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=82)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=83)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=84)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=85)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=86)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=87)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=88)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=89)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=90)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=91)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=92)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=93)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=94)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=95)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=96)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=97)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=98)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=99)</t>
+  </si>
+  <si>
+    <t>FL_LSTM(R=100)</t>
+  </si>
+  <si>
+    <t>MaxR^2</t>
   </si>
   <si>
     <t>FL-LSTM(R=82)</t>
@@ -406,36 +463,6 @@
   </si>
   <si>
     <t>FL-LSTM(R=91)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=92)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=93)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=94)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=95)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=96)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=97)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=98)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=99)</t>
-  </si>
-  <si>
-    <t>FL-LSTM(R=100)</t>
-  </si>
-  <si>
-    <t>MaxR^2</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1286,7 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=5)</c:v>
+                  <c:v>FL_LSTM(R=5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1549,7 +1576,7 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1839,271 +1866,271 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=9)</c:v>
+                  <c:v>FL_LSTM(R=9)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2356,7 +2383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R^2</c:v>
+                  <c:v>R2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2393,7 +2420,7 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2645,7 +2672,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R^2</c:v>
+                  <c:v>R2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2678,277 +2705,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3498,277 +3525,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4311,304 +4338,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=3)</c:v>
+                  <c:v>FL_LSTM(R=3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=4)</c:v>
+                  <c:v>FL_LSTM(R=4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=5)</c:v>
+                  <c:v>FL_LSTM(R=5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=6)</c:v>
+                  <c:v>FL_LSTM(R=6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=8)</c:v>
+                  <c:v>FL_LSTM(R=8)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=9)</c:v>
+                  <c:v>FL_LSTM(R=9)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=10)</c:v>
+                  <c:v>FL_LSTM(R=10)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=11)</c:v>
+                  <c:v>FL_LSTM(R=11)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=12)</c:v>
+                  <c:v>FL_LSTM(R=12)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5171,304 +5198,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=3)</c:v>
+                  <c:v>FL_LSTM(R=3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=4)</c:v>
+                  <c:v>FL_LSTM(R=4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=5)</c:v>
+                  <c:v>FL_LSTM(R=5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=6)</c:v>
+                  <c:v>FL_LSTM(R=6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=8)</c:v>
+                  <c:v>FL_LSTM(R=8)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=9)</c:v>
+                  <c:v>FL_LSTM(R=9)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=10)</c:v>
+                  <c:v>FL_LSTM(R=10)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=11)</c:v>
+                  <c:v>FL_LSTM(R=11)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=12)</c:v>
+                  <c:v>FL_LSTM(R=12)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6885,7 +6912,7 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=5)</c:v>
+                  <c:v>FL_LSTM(R=5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7138,7 +7165,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R^2</c:v>
+                  <c:v>R2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7434,7 +7461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R^2</c:v>
+                  <c:v>R2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7467,277 +7494,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8287,277 +8314,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9100,304 +9127,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=3)</c:v>
+                  <c:v>FL_LSTM(R=3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=4)</c:v>
+                  <c:v>FL_LSTM(R=4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=5)</c:v>
+                  <c:v>FL_LSTM(R=5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=6)</c:v>
+                  <c:v>FL_LSTM(R=6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=8)</c:v>
+                  <c:v>FL_LSTM(R=8)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=9)</c:v>
+                  <c:v>FL_LSTM(R=9)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=10)</c:v>
+                  <c:v>FL_LSTM(R=10)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=11)</c:v>
+                  <c:v>FL_LSTM(R=11)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=12)</c:v>
+                  <c:v>FL_LSTM(R=12)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9960,304 +9987,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=3)</c:v>
+                  <c:v>FL_LSTM(R=3)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=4)</c:v>
+                  <c:v>FL_LSTM(R=4)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=5)</c:v>
+                  <c:v>FL_LSTM(R=5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=6)</c:v>
+                  <c:v>FL_LSTM(R=6)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=8)</c:v>
+                  <c:v>FL_LSTM(R=8)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=9)</c:v>
+                  <c:v>FL_LSTM(R=9)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=10)</c:v>
+                  <c:v>FL_LSTM(R=10)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=11)</c:v>
+                  <c:v>FL_LSTM(R=11)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=12)</c:v>
+                  <c:v>FL_LSTM(R=12)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10832,286 +10859,286 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=8)</c:v>
+                  <c:v>FL_LSTM(R=8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=9)</c:v>
+                  <c:v>FL_LSTM(R=9)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=10)</c:v>
+                  <c:v>FL_LSTM(R=10)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=11)</c:v>
+                  <c:v>FL_LSTM(R=11)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=12)</c:v>
+                  <c:v>FL_LSTM(R=12)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11364,7 +11391,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R^2</c:v>
+                  <c:v>R2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11401,7 +11428,7 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=5)</c:v>
+                  <c:v>FL_LSTM(R=5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11653,7 +11680,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R^2</c:v>
+                  <c:v>R2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11686,277 +11713,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12506,277 +12533,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13326,277 +13353,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14146,277 +14173,277 @@
               <c:strCache>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>FL-LSTM(R=1)</c:v>
+                  <c:v>FL_LSTM(R=1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FL-LSTM(R=2)</c:v>
+                  <c:v>FL_LSTM(R=2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=7)</c:v>
+                  <c:v>FL_LSTM(R=7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FL-LSTM(R=13)</c:v>
+                  <c:v>FL_LSTM(R=13)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FL-LSTM(R=14)</c:v>
+                  <c:v>FL_LSTM(R=14)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FL-LSTM(R=15)</c:v>
+                  <c:v>FL_LSTM(R=15)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FL-LSTM(R=16)</c:v>
+                  <c:v>FL_LSTM(R=16)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FL-LSTM(R=17)</c:v>
+                  <c:v>FL_LSTM(R=17)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>FL-LSTM(R=18)</c:v>
+                  <c:v>FL_LSTM(R=18)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>FL-LSTM(R=19)</c:v>
+                  <c:v>FL_LSTM(R=19)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>FL-LSTM(R=20)</c:v>
+                  <c:v>FL_LSTM(R=20)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>FL-LSTM(R=21)</c:v>
+                  <c:v>FL_LSTM(R=21)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>FL-LSTM(R=22)</c:v>
+                  <c:v>FL_LSTM(R=22)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>FL-LSTM(R=24)</c:v>
+                  <c:v>FL_LSTM(R=24)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>FL-LSTM(R=25)</c:v>
+                  <c:v>FL_LSTM(R=25)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>FL-LSTM(R=26)</c:v>
+                  <c:v>FL_LSTM(R=26)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>FL-LSTM(R=27)</c:v>
+                  <c:v>FL_LSTM(R=27)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>FL-LSTM(R=28)</c:v>
+                  <c:v>FL_LSTM(R=28)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>FL-LSTM(R=29)</c:v>
+                  <c:v>FL_LSTM(R=29)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FL-LSTM(R=30)</c:v>
+                  <c:v>FL_LSTM(R=30)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>FL-LSTM(R=31)</c:v>
+                  <c:v>FL_LSTM(R=31)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>FL-LSTM(R=32)</c:v>
+                  <c:v>FL_LSTM(R=32)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>FL-LSTM(R=33)</c:v>
+                  <c:v>FL_LSTM(R=33)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>FL-LSTM(R=34)</c:v>
+                  <c:v>FL_LSTM(R=34)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>FL-LSTM(R=35)</c:v>
+                  <c:v>FL_LSTM(R=35)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>FL-LSTM(R=36)</c:v>
+                  <c:v>FL_LSTM(R=36)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FL-LSTM(R=37)</c:v>
+                  <c:v>FL_LSTM(R=37)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>FL-LSTM(R=38)</c:v>
+                  <c:v>FL_LSTM(R=38)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>FL-LSTM(R=39)</c:v>
+                  <c:v>FL_LSTM(R=39)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FL-LSTM(R=40)</c:v>
+                  <c:v>FL_LSTM(R=40)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>FL-LSTM(R=41)</c:v>
+                  <c:v>FL_LSTM(R=41)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>FL-LSTM(R=42)</c:v>
+                  <c:v>FL_LSTM(R=42)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>FL-LSTM(R=43)</c:v>
+                  <c:v>FL_LSTM(R=43)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>FL-LSTM(R=44)</c:v>
+                  <c:v>FL_LSTM(R=44)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>FL-LSTM(R=45)</c:v>
+                  <c:v>FL_LSTM(R=45)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>FL-LSTM(R=46)</c:v>
+                  <c:v>FL_LSTM(R=46)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>FL-LSTM(R=47)</c:v>
+                  <c:v>FL_LSTM(R=47)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>FL-LSTM(R=48)</c:v>
+                  <c:v>FL_LSTM(R=48)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>FL-LSTM(R=49)</c:v>
+                  <c:v>FL_LSTM(R=49)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>FL-LSTM(R=50)</c:v>
+                  <c:v>FL_LSTM(R=50)</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>FL-LSTM(R=51)</c:v>
+                  <c:v>FL_LSTM(R=51)</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>FL-LSTM(R=52)</c:v>
+                  <c:v>FL_LSTM(R=52)</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>FL-LSTM(R=53)</c:v>
+                  <c:v>FL_LSTM(R=53)</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>FL-LSTM(R=54)</c:v>
+                  <c:v>FL_LSTM(R=54)</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>FL-LSTM(R=55)</c:v>
+                  <c:v>FL_LSTM(R=55)</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>FL-LSTM(R=56)</c:v>
+                  <c:v>FL_LSTM(R=56)</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>FL-LSTM(R=57)</c:v>
+                  <c:v>FL_LSTM(R=57)</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>FL-LSTM(R=58)</c:v>
+                  <c:v>FL_LSTM(R=58)</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>FL-LSTM(R=59)</c:v>
+                  <c:v>FL_LSTM(R=59)</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>FL-LSTM(R=60)</c:v>
+                  <c:v>FL_LSTM(R=60)</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>FL-LSTM(R=61)</c:v>
+                  <c:v>FL_LSTM(R=61)</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>FL-LSTM(R=62)</c:v>
+                  <c:v>FL_LSTM(R=62)</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>FL-LSTM(R=63)</c:v>
+                  <c:v>FL_LSTM(R=63)</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>FL-LSTM(R=64)</c:v>
+                  <c:v>FL_LSTM(R=64)</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>FL-LSTM(R=65)</c:v>
+                  <c:v>FL_LSTM(R=65)</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>FL-LSTM(R=66)</c:v>
+                  <c:v>FL_LSTM(R=66)</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>FL-LSTM(R=67)</c:v>
+                  <c:v>FL_LSTM(R=67)</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>FL-LSTM(R=68)</c:v>
+                  <c:v>FL_LSTM(R=68)</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>FL-LSTM(R=69)</c:v>
+                  <c:v>FL_LSTM(R=69)</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>FL-LSTM(R=70)</c:v>
+                  <c:v>FL_LSTM(R=70)</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>FL-LSTM(R=71)</c:v>
+                  <c:v>FL_LSTM(R=71)</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>FL-LSTM(R=72)</c:v>
+                  <c:v>FL_LSTM(R=72)</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>FL-LSTM(R=73)</c:v>
+                  <c:v>FL_LSTM(R=73)</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>FL-LSTM(R=74)</c:v>
+                  <c:v>FL_LSTM(R=74)</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>FL-LSTM(R=75)</c:v>
+                  <c:v>FL_LSTM(R=75)</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>FL-LSTM(R=76)</c:v>
+                  <c:v>FL_LSTM(R=76)</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>FL-LSTM(R=77)</c:v>
+                  <c:v>FL_LSTM(R=77)</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>FL-LSTM(R=78)</c:v>
+                  <c:v>FL_LSTM(R=78)</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>FL-LSTM(R=79)</c:v>
+                  <c:v>FL_LSTM(R=79)</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>FL-LSTM(R=80)</c:v>
+                  <c:v>FL_LSTM(R=80)</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>FL-LSTM(R=81)</c:v>
+                  <c:v>FL_LSTM(R=81)</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>FL-LSTM(R=82)</c:v>
+                  <c:v>FL_LSTM(R=82)</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>FL-LSTM(R=83)</c:v>
+                  <c:v>FL_LSTM(R=83)</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>FL-LSTM(R=84)</c:v>
+                  <c:v>FL_LSTM(R=84)</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>FL-LSTM(R=85)</c:v>
+                  <c:v>FL_LSTM(R=85)</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>FL-LSTM(R=86)</c:v>
+                  <c:v>FL_LSTM(R=86)</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>FL-LSTM(R=87)</c:v>
+                  <c:v>FL_LSTM(R=87)</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>FL-LSTM(R=88)</c:v>
+                  <c:v>FL_LSTM(R=88)</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>FL-LSTM(R=89)</c:v>
+                  <c:v>FL_LSTM(R=89)</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>FL-LSTM(R=90)</c:v>
+                  <c:v>FL_LSTM(R=90)</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>FL-LSTM(R=91)</c:v>
+                  <c:v>FL_LSTM(R=91)</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>FL-LSTM(R=92)</c:v>
+                  <c:v>FL_LSTM(R=92)</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>FL-LSTM(R=93)</c:v>
+                  <c:v>FL_LSTM(R=93)</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>FL-LSTM(R=94)</c:v>
+                  <c:v>FL_LSTM(R=94)</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>FL-LSTM(R=95)</c:v>
+                  <c:v>FL_LSTM(R=95)</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>FL-LSTM(R=96)</c:v>
+                  <c:v>FL_LSTM(R=96)</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>FL-LSTM(R=97)</c:v>
+                  <c:v>FL_LSTM(R=97)</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>FL-LSTM(R=98)</c:v>
+                  <c:v>FL_LSTM(R=98)</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>FL-LSTM(R=99)</c:v>
+                  <c:v>FL_LSTM(R=99)</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>FL-LSTM(R=100)</c:v>
+                  <c:v>FL_LSTM(R=100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14971,7 +14998,7 @@
                   <c:v>C-LSTM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FL-LSTM(R=23)</c:v>
+                  <c:v>FL_LSTM(R=23)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -64469,7 +64496,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B4" sqref="B4:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -64504,7 +64531,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -64519,10 +64546,10 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -64530,7 +64557,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -64566,7 +64593,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
@@ -64603,7 +64630,7 @@
         <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -64634,7 +64661,7 @@
         <v>208</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -64667,7 +64694,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <f>MIN(G4:G103)</f>
@@ -64679,7 +64706,7 @@
         <v>209</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
@@ -64712,7 +64739,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <f>MIN(E4:E103)</f>
@@ -64724,7 +64751,7 @@
         <v>210</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
@@ -64757,7 +64784,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <f>MIN(F4:F103)</f>
@@ -64769,7 +64796,7 @@
         <v>211</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
@@ -64802,7 +64829,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <f>MAX(H4:H103)</f>
@@ -64814,7 +64841,7 @@
         <v>212</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6">
         <v>6</v>
@@ -64853,7 +64880,7 @@
         <v>213</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6">
         <v>7</v>
@@ -64892,7 +64919,7 @@
         <v>214</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6">
         <v>8</v>
@@ -64931,7 +64958,7 @@
         <v>215</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6">
         <v>9</v>
@@ -64970,7 +64997,7 @@
         <v>216</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6">
         <v>10</v>
@@ -65009,7 +65036,7 @@
         <v>217</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6">
         <v>11</v>
@@ -65048,7 +65075,7 @@
         <v>218</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -65087,7 +65114,7 @@
         <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6">
         <v>13</v>
@@ -65126,7 +65153,7 @@
         <v>220</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6">
         <v>14</v>
@@ -65165,7 +65192,7 @@
         <v>221</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6">
         <v>15</v>
@@ -65204,7 +65231,7 @@
         <v>222</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6">
         <v>16</v>
@@ -65243,7 +65270,7 @@
         <v>223</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6">
         <v>17</v>
@@ -65282,7 +65309,7 @@
         <v>224</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="6">
         <v>18</v>
@@ -65321,7 +65348,7 @@
         <v>225</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6">
         <v>19</v>
@@ -65360,7 +65387,7 @@
         <v>226</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6">
         <v>20</v>
@@ -65399,7 +65426,7 @@
         <v>227</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6">
         <v>21</v>
@@ -65438,7 +65465,7 @@
         <v>228</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="6">
         <v>22</v>
@@ -65477,7 +65504,7 @@
         <v>229</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6">
         <v>23</v>
@@ -65516,7 +65543,7 @@
         <v>230</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6">
         <v>24</v>
@@ -65555,7 +65582,7 @@
         <v>231</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6">
         <v>25</v>
@@ -65594,7 +65621,7 @@
         <v>232</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6">
         <v>26</v>
@@ -65633,7 +65660,7 @@
         <v>233</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6">
         <v>27</v>
@@ -65672,7 +65699,7 @@
         <v>234</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="6">
         <v>28</v>
@@ -65711,7 +65738,7 @@
         <v>235</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6">
         <v>29</v>
@@ -65750,7 +65777,7 @@
         <v>236</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="6">
         <v>30</v>
@@ -65789,7 +65816,7 @@
         <v>237</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="6">
         <v>31</v>
@@ -65828,7 +65855,7 @@
         <v>238</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="6">
         <v>32</v>
@@ -65867,7 +65894,7 @@
         <v>239</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="6">
         <v>33</v>
@@ -65906,7 +65933,7 @@
         <v>240</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="6">
         <v>34</v>
@@ -65945,7 +65972,7 @@
         <v>241</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="6">
         <v>35</v>
@@ -65984,7 +66011,7 @@
         <v>242</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="6">
         <v>36</v>
@@ -66023,7 +66050,7 @@
         <v>243</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="6">
         <v>37</v>
@@ -66062,7 +66089,7 @@
         <v>244</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="6">
         <v>38</v>
@@ -66101,7 +66128,7 @@
         <v>245</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="6">
         <v>39</v>
@@ -66140,7 +66167,7 @@
         <v>246</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="6">
         <v>40</v>
@@ -66179,7 +66206,7 @@
         <v>247</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="6">
         <v>41</v>
@@ -66218,7 +66245,7 @@
         <v>248</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="6">
         <v>42</v>
@@ -66257,7 +66284,7 @@
         <v>249</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="6">
         <v>43</v>
@@ -66296,7 +66323,7 @@
         <v>250</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="6">
         <v>44</v>
@@ -66335,7 +66362,7 @@
         <v>251</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="6">
         <v>45</v>
@@ -66374,7 +66401,7 @@
         <v>252</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="6">
         <v>46</v>
@@ -66413,7 +66440,7 @@
         <v>253</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="6">
         <v>47</v>
@@ -66452,7 +66479,7 @@
         <v>254</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="6">
         <v>48</v>
@@ -66491,7 +66518,7 @@
         <v>255</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="6">
         <v>49</v>
@@ -66530,7 +66557,7 @@
         <v>256</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6">
         <v>50</v>
@@ -66569,7 +66596,7 @@
         <v>257</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6">
         <v>51</v>
@@ -66608,7 +66635,7 @@
         <v>258</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="6">
         <v>52</v>
@@ -66647,7 +66674,7 @@
         <v>259</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="6">
         <v>53</v>
@@ -66686,7 +66713,7 @@
         <v>260</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="6">
         <v>54</v>
@@ -66725,7 +66752,7 @@
         <v>261</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="6">
         <v>55</v>
@@ -66764,7 +66791,7 @@
         <v>262</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="6">
         <v>56</v>
@@ -66803,7 +66830,7 @@
         <v>263</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="6">
         <v>57</v>
@@ -66842,7 +66869,7 @@
         <v>264</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="6">
         <v>58</v>
@@ -66881,7 +66908,7 @@
         <v>265</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="6">
         <v>59</v>
@@ -66920,7 +66947,7 @@
         <v>266</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="6">
         <v>60</v>
@@ -66959,7 +66986,7 @@
         <v>267</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="6">
         <v>61</v>
@@ -66998,7 +67025,7 @@
         <v>268</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="6">
         <v>62</v>
@@ -67037,7 +67064,7 @@
         <v>269</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="6">
         <v>63</v>
@@ -67076,7 +67103,7 @@
         <v>270</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="6">
         <v>64</v>
@@ -67115,7 +67142,7 @@
         <v>271</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="6">
         <v>65</v>
@@ -67154,7 +67181,7 @@
         <v>272</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="6">
         <v>66</v>
@@ -67193,7 +67220,7 @@
         <v>273</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="6">
         <v>67</v>
@@ -67232,7 +67259,7 @@
         <v>274</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="6">
         <v>68</v>
@@ -67271,7 +67298,7 @@
         <v>275</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="6">
         <v>69</v>
@@ -67310,7 +67337,7 @@
         <v>276</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="6">
         <v>70</v>
@@ -67349,7 +67376,7 @@
         <v>277</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="6">
         <v>71</v>
@@ -67388,7 +67415,7 @@
         <v>278</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="6">
         <v>72</v>
@@ -67427,7 +67454,7 @@
         <v>279</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="6">
         <v>73</v>
@@ -67466,7 +67493,7 @@
         <v>280</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="6">
         <v>74</v>
@@ -67505,7 +67532,7 @@
         <v>281</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="6">
         <v>75</v>
@@ -67544,7 +67571,7 @@
         <v>282</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="6">
         <v>76</v>
@@ -67583,7 +67610,7 @@
         <v>283</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="6">
         <v>77</v>
@@ -67622,7 +67649,7 @@
         <v>284</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="6">
         <v>78</v>
@@ -67661,7 +67688,7 @@
         <v>285</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="6">
         <v>79</v>
@@ -67700,7 +67727,7 @@
         <v>286</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="6">
         <v>80</v>
@@ -67739,7 +67766,7 @@
         <v>287</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="6">
         <v>81</v>
@@ -67778,7 +67805,7 @@
         <v>288</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="6">
         <v>82</v>
@@ -67817,7 +67844,7 @@
         <v>289</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="6">
         <v>83</v>
@@ -67856,7 +67883,7 @@
         <v>290</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="6">
         <v>84</v>
@@ -67895,7 +67922,7 @@
         <v>291</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="6">
         <v>85</v>
@@ -67934,7 +67961,7 @@
         <v>292</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="6">
         <v>86</v>
@@ -67973,7 +68000,7 @@
         <v>293</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="6">
         <v>87</v>
@@ -68012,7 +68039,7 @@
         <v>294</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="6">
         <v>88</v>
@@ -68051,7 +68078,7 @@
         <v>295</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="6">
         <v>89</v>
@@ -68090,7 +68117,7 @@
         <v>296</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="6">
         <v>90</v>
@@ -68129,7 +68156,7 @@
         <v>297</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" s="6">
         <v>91</v>
@@ -68168,7 +68195,7 @@
         <v>298</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="6">
         <v>92</v>
@@ -68207,7 +68234,7 @@
         <v>299</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="6">
         <v>93</v>
@@ -68246,7 +68273,7 @@
         <v>300</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="6">
         <v>94</v>
@@ -68285,7 +68312,7 @@
         <v>301</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" s="6">
         <v>95</v>
@@ -68324,7 +68351,7 @@
         <v>302</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="6">
         <v>96</v>
@@ -68363,7 +68390,7 @@
         <v>303</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" s="6">
         <v>97</v>
@@ -68402,7 +68429,7 @@
         <v>304</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" s="6">
         <v>98</v>
@@ -68441,7 +68468,7 @@
         <v>305</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="6">
         <v>99</v>
@@ -68480,7 +68507,7 @@
         <v>306</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="6">
         <v>100</v>
@@ -68527,7 +68554,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B4" sqref="B4:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -68557,7 +68584,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -68580,7 +68607,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>19</v>
@@ -68618,7 +68645,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
@@ -68656,7 +68683,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -68694,7 +68721,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -68727,7 +68754,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <f>MIN(F4:F103)</f>
@@ -68739,7 +68766,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -68772,7 +68799,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <f>MIN(D4:D103)</f>
@@ -68784,7 +68811,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
@@ -68817,7 +68844,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <f>MIN(E4:E103)</f>
@@ -68829,7 +68856,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -68862,7 +68889,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <f>MAX(G4:G103)</f>
@@ -68874,7 +68901,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
@@ -68912,7 +68939,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -68950,7 +68977,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
@@ -68988,7 +69015,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
@@ -69026,7 +69053,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
@@ -69064,7 +69091,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -69102,7 +69129,7 @@
         <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -69140,7 +69167,7 @@
         <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -69178,7 +69205,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>19</v>
@@ -69216,7 +69243,7 @@
         <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -69254,7 +69281,7 @@
         <v>122</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
@@ -69292,7 +69319,7 @@
         <v>123</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
@@ -69330,7 +69357,7 @@
         <v>124</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
@@ -69368,7 +69395,7 @@
         <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
@@ -69406,7 +69433,7 @@
         <v>126</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>19</v>
@@ -69444,7 +69471,7 @@
         <v>127</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>19</v>
@@ -69482,7 +69509,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>19</v>
@@ -69520,7 +69547,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>19</v>
@@ -69558,7 +69585,7 @@
         <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>19</v>
@@ -69596,7 +69623,7 @@
         <v>131</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
@@ -69634,7 +69661,7 @@
         <v>132</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>19</v>
@@ -69672,7 +69699,7 @@
         <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>19</v>
@@ -69710,7 +69737,7 @@
         <v>134</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -69748,7 +69775,7 @@
         <v>135</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>19</v>
@@ -69786,7 +69813,7 @@
         <v>136</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>19</v>
@@ -69824,7 +69851,7 @@
         <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>19</v>
@@ -69862,7 +69889,7 @@
         <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>19</v>
@@ -69900,7 +69927,7 @@
         <v>139</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>19</v>
@@ -69938,7 +69965,7 @@
         <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>19</v>
@@ -69976,7 +70003,7 @@
         <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>19</v>
@@ -70014,7 +70041,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>19</v>
@@ -70052,7 +70079,7 @@
         <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>19</v>
@@ -70090,7 +70117,7 @@
         <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>19</v>
@@ -70128,7 +70155,7 @@
         <v>145</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>19</v>
@@ -70166,7 +70193,7 @@
         <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>19</v>
@@ -70204,7 +70231,7 @@
         <v>147</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>19</v>
@@ -70242,7 +70269,7 @@
         <v>148</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -70280,7 +70307,7 @@
         <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>19</v>
@@ -70318,7 +70345,7 @@
         <v>150</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>19</v>
@@ -70356,7 +70383,7 @@
         <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>19</v>
@@ -70394,7 +70421,7 @@
         <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>19</v>
@@ -70432,7 +70459,7 @@
         <v>153</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>19</v>
@@ -70470,7 +70497,7 @@
         <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>19</v>
@@ -70508,7 +70535,7 @@
         <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>19</v>
@@ -70546,7 +70573,7 @@
         <v>156</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>19</v>
@@ -70584,7 +70611,7 @@
         <v>157</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>19</v>
@@ -70622,7 +70649,7 @@
         <v>158</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>19</v>
@@ -70660,7 +70687,7 @@
         <v>159</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>19</v>
@@ -70698,7 +70725,7 @@
         <v>160</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>19</v>
@@ -70736,7 +70763,7 @@
         <v>161</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -70774,7 +70801,7 @@
         <v>162</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>19</v>
@@ -70812,7 +70839,7 @@
         <v>163</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>19</v>
@@ -70850,7 +70877,7 @@
         <v>164</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>19</v>
@@ -70888,7 +70915,7 @@
         <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>19</v>
@@ -70926,7 +70953,7 @@
         <v>166</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>19</v>
@@ -70964,7 +70991,7 @@
         <v>167</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>19</v>
@@ -71002,7 +71029,7 @@
         <v>168</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>19</v>
@@ -71040,7 +71067,7 @@
         <v>169</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>19</v>
@@ -71078,7 +71105,7 @@
         <v>170</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>19</v>
@@ -71116,7 +71143,7 @@
         <v>171</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>19</v>
@@ -71154,7 +71181,7 @@
         <v>172</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>19</v>
@@ -71192,7 +71219,7 @@
         <v>173</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>19</v>
@@ -71230,7 +71257,7 @@
         <v>174</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -71268,7 +71295,7 @@
         <v>175</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>19</v>
@@ -71306,7 +71333,7 @@
         <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>19</v>
@@ -71344,7 +71371,7 @@
         <v>177</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>19</v>
@@ -71382,7 +71409,7 @@
         <v>178</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>19</v>
@@ -71420,7 +71447,7 @@
         <v>179</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>19</v>
@@ -71458,7 +71485,7 @@
         <v>180</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>19</v>
@@ -71496,7 +71523,7 @@
         <v>181</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>19</v>
@@ -71534,7 +71561,7 @@
         <v>182</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>19</v>
@@ -71572,7 +71599,7 @@
         <v>183</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>19</v>
@@ -71610,7 +71637,7 @@
         <v>184</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>19</v>
@@ -71648,7 +71675,7 @@
         <v>185</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>19</v>
@@ -71686,7 +71713,7 @@
         <v>186</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>19</v>
@@ -71724,7 +71751,7 @@
         <v>187</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>19</v>
@@ -71762,7 +71789,7 @@
         <v>188</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>19</v>
@@ -71800,7 +71827,7 @@
         <v>189</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>19</v>
@@ -71838,7 +71865,7 @@
         <v>190</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>19</v>
@@ -71876,7 +71903,7 @@
         <v>191</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>19</v>
@@ -71914,7 +71941,7 @@
         <v>192</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>19</v>
@@ -71952,7 +71979,7 @@
         <v>193</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>19</v>
@@ -71990,7 +72017,7 @@
         <v>194</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>19</v>
@@ -72028,7 +72055,7 @@
         <v>195</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>19</v>
@@ -72066,7 +72093,7 @@
         <v>196</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>19</v>
@@ -72104,7 +72131,7 @@
         <v>197</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>19</v>
@@ -72142,7 +72169,7 @@
         <v>198</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>19</v>
@@ -72180,7 +72207,7 @@
         <v>199</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>19</v>
@@ -72218,7 +72245,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>19</v>
@@ -72256,7 +72283,7 @@
         <v>201</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>19</v>
@@ -72294,7 +72321,7 @@
         <v>202</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>19</v>
@@ -72332,7 +72359,7 @@
         <v>203</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>19</v>
@@ -72370,7 +72397,7 @@
         <v>204</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>19</v>
@@ -72408,7 +72435,7 @@
         <v>205</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>19</v>
@@ -72446,7 +72473,7 @@
         <v>206</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>19</v>
@@ -72492,7 +72519,7 @@
   <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B4" sqref="B4:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -72527,7 +72554,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -72545,10 +72572,10 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -72556,7 +72583,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -72594,7 +72621,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
@@ -72632,7 +72659,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>20</v>
@@ -72670,7 +72697,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -72703,7 +72730,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <f>MIN(F4:F103)</f>
@@ -72715,7 +72742,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
@@ -72748,7 +72775,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <f>MIN(D4:D103)</f>
@@ -72760,7 +72787,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
@@ -72793,7 +72820,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <f>MIN(E4:E103)</f>
@@ -72805,7 +72832,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
@@ -72838,7 +72865,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N8">
         <f>MAX(G4:G103)</f>
@@ -72850,7 +72877,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
@@ -72912,7 +72939,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -72948,7 +72975,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
@@ -72974,7 +73001,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -73010,7 +73037,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>20</v>
@@ -73036,7 +73063,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
@@ -73072,7 +73099,7 @@
         <v>88</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>20</v>
@@ -73098,7 +73125,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -73134,7 +73161,7 @@
         <v>89</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>20</v>
@@ -73160,7 +73187,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
@@ -73196,7 +73223,7 @@
         <v>90</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>20</v>
@@ -73222,7 +73249,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>20</v>
@@ -73258,7 +73285,7 @@
         <v>91</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>20</v>
@@ -73284,7 +73311,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -73320,7 +73347,7 @@
         <v>92</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>20</v>
@@ -73346,7 +73373,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -73382,7 +73409,7 @@
         <v>93</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>20</v>
@@ -73408,7 +73435,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>20</v>
@@ -73444,7 +73471,7 @@
         <v>94</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>20</v>
@@ -73470,7 +73497,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>20</v>
@@ -73506,7 +73533,7 @@
         <v>95</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>20</v>
@@ -73532,7 +73559,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>20</v>
@@ -73568,7 +73595,7 @@
         <v>96</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>20</v>
@@ -73594,7 +73621,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>20</v>
@@ -73630,7 +73657,7 @@
         <v>97</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>20</v>
@@ -73656,7 +73683,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>20</v>
@@ -73694,7 +73721,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>20</v>
@@ -73732,7 +73759,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>20</v>
@@ -73770,7 +73797,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>20</v>
@@ -73808,7 +73835,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>20</v>
@@ -73846,7 +73873,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>20</v>
@@ -73884,7 +73911,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>20</v>
@@ -73922,7 +73949,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>20</v>
@@ -73960,7 +73987,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>20</v>
@@ -73998,7 +74025,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>20</v>
@@ -74036,7 +74063,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>20</v>
@@ -74074,7 +74101,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>20</v>
@@ -74112,7 +74139,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>20</v>
@@ -74150,7 +74177,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>20</v>
@@ -74188,7 +74215,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>20</v>
@@ -74226,7 +74253,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>20</v>
@@ -74264,7 +74291,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>20</v>
@@ -74302,7 +74329,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>20</v>
@@ -74340,7 +74367,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>20</v>
@@ -74378,7 +74405,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>20</v>
@@ -74416,7 +74443,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>20</v>
@@ -74454,7 +74481,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>20</v>
@@ -74492,7 +74519,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>20</v>
@@ -74530,7 +74557,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>20</v>
@@ -74568,7 +74595,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>20</v>
@@ -74606,7 +74633,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>20</v>
@@ -74644,7 +74671,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>20</v>
@@ -74682,7 +74709,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>20</v>
@@ -74720,7 +74747,7 @@
         <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>20</v>
@@ -74758,7 +74785,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>20</v>
@@ -74796,7 +74823,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>20</v>
@@ -74834,7 +74861,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>20</v>
@@ -74872,7 +74899,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>20</v>
@@ -74910,7 +74937,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>20</v>
@@ -74948,7 +74975,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>20</v>
@@ -74986,7 +75013,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>20</v>
@@ -75024,7 +75051,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>20</v>
@@ -75062,7 +75089,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>20</v>
@@ -75100,7 +75127,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>20</v>
@@ -75138,7 +75165,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>20</v>
@@ -75176,7 +75203,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>20</v>
@@ -75214,7 +75241,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>20</v>
@@ -75252,7 +75279,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>20</v>
@@ -75290,7 +75317,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>20</v>
@@ -75328,7 +75355,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>20</v>
@@ -75366,7 +75393,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>20</v>
@@ -75404,7 +75431,7 @@
         <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>20</v>
@@ -75442,7 +75469,7 @@
         <v>72</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>20</v>
@@ -75480,7 +75507,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>20</v>
@@ -75518,7 +75545,7 @@
         <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>20</v>
@@ -75556,7 +75583,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>20</v>
@@ -75594,7 +75621,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>20</v>
@@ -75632,7 +75659,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>20</v>
@@ -75670,7 +75697,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>20</v>
@@ -75708,7 +75735,7 @@
         <v>79</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>20</v>
@@ -75746,7 +75773,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>20</v>
@@ -75784,7 +75811,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>20</v>
@@ -75822,7 +75849,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>20</v>
@@ -75860,7 +75887,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>20</v>
@@ -75898,7 +75925,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>20</v>
@@ -75936,7 +75963,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>20</v>
@@ -75974,7 +76001,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>20</v>
@@ -76012,7 +76039,7 @@
         <v>87</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>20</v>
@@ -76050,7 +76077,7 @@
         <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>20</v>
@@ -76088,7 +76115,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>20</v>
@@ -76126,7 +76153,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>20</v>
@@ -76164,7 +76191,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>20</v>
@@ -76202,7 +76229,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>20</v>
@@ -76240,7 +76267,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>20</v>
@@ -76278,7 +76305,7 @@
         <v>94</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>20</v>
@@ -76316,7 +76343,7 @@
         <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>20</v>
@@ -76354,7 +76381,7 @@
         <v>96</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>20</v>
@@ -76392,7 +76419,7 @@
         <v>97</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>20</v>
@@ -76430,7 +76457,7 @@
         <v>98</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>20</v>
@@ -76468,7 +76495,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>20</v>
@@ -76506,7 +76533,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>20</v>
@@ -76544,7 +76571,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>20</v>
@@ -76582,7 +76609,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>20</v>
@@ -76620,7 +76647,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>20</v>
@@ -76658,7 +76685,7 @@
         <v>104</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>20</v>
@@ -76696,7 +76723,7 @@
         <v>105</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>20</v>
@@ -76734,7 +76761,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>20</v>
